--- a/output/SIZE/rebalance/rebalance_20240329.xlsx
+++ b/output/SIZE/rebalance/rebalance_20240329.xlsx
@@ -30546,13 +30546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3447703931031733</v>
+        <v>0.3447639950116754</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04477039310317327</v>
+        <v>-0.04476399501167544</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -30567,13 +30567,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05984405151746684</v>
+        <v>0.05984204579058545</v>
       </c>
       <c r="C3" t="n">
         <v>0.06080844826008838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009643967426215469</v>
+        <v>0.0009664024695029347</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -30588,13 +30588,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05151453533741569</v>
+        <v>0.0515143932397078</v>
       </c>
       <c r="C4" t="n">
         <v>0.05589774460464264</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004383209267226955</v>
+        <v>0.00438335136493484</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -30609,13 +30609,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03002438219055844</v>
+        <v>0.03002416738619609</v>
       </c>
       <c r="C5" t="n">
         <v>0.03315141673952939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003127034548970956</v>
+        <v>0.003127249353333299</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -30630,13 +30630,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02811697367679656</v>
+        <v>0.02811760584082249</v>
       </c>
       <c r="C6" t="n">
         <v>0.02978852195970292</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00167154828290636</v>
+        <v>0.001670916118880431</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -30651,13 +30651,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02702683968315123</v>
+        <v>0.02702741801180485</v>
       </c>
       <c r="C7" t="n">
         <v>0.02858255864909384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001555718965942608</v>
+        <v>0.001555140637288989</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -30672,13 +30672,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02469740020216426</v>
+        <v>0.02469726080857522</v>
       </c>
       <c r="C8" t="n">
         <v>0.02590160044548957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001204200243325307</v>
+        <v>0.001204339636914343</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -30693,13 +30693,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02170262930031576</v>
+        <v>0.02170320743539183</v>
       </c>
       <c r="C9" t="n">
         <v>0.02305045052346277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001347821223147017</v>
+        <v>0.001347243088070948</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -30714,13 +30714,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01884793362093174</v>
+        <v>0.0188471969571943</v>
       </c>
       <c r="C10" t="n">
         <v>0.02064203300984096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001794099388909221</v>
+        <v>0.001794836052646655</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -30735,13 +30735,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0180997772289764</v>
+        <v>0.01810027862929854</v>
       </c>
       <c r="C11" t="n">
         <v>0.01944718187328696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00134740464431056</v>
+        <v>0.001346903243988423</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -30756,13 +30756,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01814127702376698</v>
+        <v>0.01814194697796908</v>
       </c>
       <c r="C12" t="n">
         <v>0.01936033146027753</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001219054436510558</v>
+        <v>0.001218384482308457</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -30777,13 +30777,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.018087700384243</v>
+        <v>0.01808797874104261</v>
       </c>
       <c r="C13" t="n">
         <v>0.01912492882568968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001037228441446679</v>
+        <v>0.001036950084647072</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -30798,13 +30798,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01609169571805561</v>
+        <v>0.01609213222048733</v>
       </c>
       <c r="C14" t="n">
         <v>0.01707677969195884</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0009850839739032231</v>
+        <v>0.0009846474714715094</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -30819,13 +30819,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01213116799204597</v>
+        <v>0.01213120655249449</v>
       </c>
       <c r="C15" t="n">
         <v>0.01298720721405682</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0008560392220108431</v>
+        <v>0.0008560006615623266</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -30840,13 +30840,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01205128055136618</v>
+        <v>0.01205189633670631</v>
       </c>
       <c r="C16" t="n">
         <v>0.01287725517603814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0008259746246719636</v>
+        <v>0.0008253588393318349</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -30861,13 +30861,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01203446195101237</v>
+        <v>0.01203472895419148</v>
       </c>
       <c r="C17" t="n">
         <v>0.01282578826462515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007913263136127748</v>
+        <v>0.0007910593104336651</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -30882,13 +30882,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01180615993000973</v>
+        <v>0.01180611308431363</v>
       </c>
       <c r="C18" t="n">
         <v>0.01248189572018376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0006757357901740323</v>
+        <v>0.0006757826358701272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -30903,13 +30903,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01062737063441273</v>
+        <v>0.01062781009196584</v>
       </c>
       <c r="C19" t="n">
         <v>0.01160344911856648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0009760784841537518</v>
+        <v>0.0009756390266006422</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -30924,13 +30924,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0106030340293367</v>
+        <v>0.01060353969805452</v>
       </c>
       <c r="C20" t="n">
         <v>0.01128031879407011</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000677284764733407</v>
+        <v>0.0006767790960155919</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -30945,13 +30945,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01061694854930619</v>
+        <v>0.01061706194110821</v>
       </c>
       <c r="C21" t="n">
         <v>0.01126979147128109</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006528429219749016</v>
+        <v>0.0006527295301728808</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -30966,13 +30966,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01054255012627441</v>
+        <v>0.01054267514977749</v>
       </c>
       <c r="C22" t="n">
         <v>0.01121452302663872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000671972900364309</v>
+        <v>0.0006718478768612327</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -30987,13 +30987,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01043567656413397</v>
+        <v>0.01043595474626654</v>
       </c>
       <c r="C23" t="n">
         <v>0.01103263428289506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000596957718761091</v>
+        <v>0.0005966795366285239</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31008,13 +31008,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01042141304722658</v>
+        <v>0.01042172161651247</v>
       </c>
       <c r="C24" t="n">
         <v>0.01102386151390421</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0006024484666776325</v>
+        <v>0.0006021398973917423</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31029,13 +31029,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01039378796778405</v>
+        <v>0.01039370631222431</v>
       </c>
       <c r="C25" t="n">
         <v>0.01081477718628892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0004209892185048619</v>
+        <v>0.0004210708740646062</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31050,13 +31050,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009949846269862405</v>
+        <v>0.009949210438512978</v>
       </c>
       <c r="C26" t="n">
         <v>0.01074751929069239</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0007976730208299823</v>
+        <v>0.0007983088521794097</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31071,13 +31071,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009700350591595229</v>
+        <v>0.009700289437981954</v>
       </c>
       <c r="C27" t="n">
         <v>0.01058960944885706</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0008892588572618279</v>
+        <v>0.0008893200108751036</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31092,13 +31092,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01000616999220249</v>
+        <v>0.01000678547790937</v>
       </c>
       <c r="C28" t="n">
         <v>0.01047527102634295</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000469101034140466</v>
+        <v>0.0004684855484335809</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31113,13 +31113,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00969084008470669</v>
+        <v>0.009691102485892488</v>
       </c>
       <c r="C29" t="n">
         <v>0.01014102852779151</v>
       </c>
       <c r="D29" t="n">
-        <v>0.000450188443084816</v>
+        <v>0.0004499260418990188</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31134,13 +31134,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009005855804642736</v>
+        <v>0.009006205375648063</v>
       </c>
       <c r="C30" t="n">
         <v>0.009545065087679648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005392092830369122</v>
+        <v>0.0005388597120315856</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31155,13 +31155,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008900391549041421</v>
+        <v>0.008900683488854987</v>
       </c>
       <c r="C31" t="n">
         <v>0.009461138931000502</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000560747381959081</v>
+        <v>0.0005604554421455143</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31176,13 +31176,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008732874436205108</v>
+        <v>0.008733955944998128</v>
       </c>
       <c r="C32" t="n">
         <v>0.0093292549705047</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005963805342995912</v>
+        <v>0.0005952990255065713</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31197,13 +31197,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008673035030280912</v>
+        <v>0.008673213933925521</v>
       </c>
       <c r="C33" t="n">
         <v>0.009235678767935615</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0005626437376547028</v>
+        <v>0.000562464834010094</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31218,13 +31218,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008401188285336651</v>
+        <v>0.008401355044855882</v>
       </c>
       <c r="C34" t="n">
         <v>0.008875410388044638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004742221027079878</v>
+        <v>0.0004740553431887562</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31239,13 +31239,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008097829314802945</v>
+        <v>0.008097989986032216</v>
       </c>
       <c r="C35" t="n">
         <v>0.008593219652172242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004953903373692975</v>
+        <v>0.0004952296661400266</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31260,13 +31260,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008044357595719724</v>
+        <v>0.008043725777377463</v>
       </c>
       <c r="C36" t="n">
         <v>0.008518066264483946</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0004737086687642226</v>
+        <v>0.0004743404871064838</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -31281,13 +31281,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007930869730183705</v>
+        <v>0.007930984135413984</v>
       </c>
       <c r="C37" t="n">
         <v>0.008399049031841391</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0004681793016576858</v>
+        <v>0.0004680648964274069</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -31302,13 +31302,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007662318674264787</v>
+        <v>0.007662390714186132</v>
       </c>
       <c r="C38" t="n">
         <v>0.008101652163051521</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0004393334887867343</v>
+        <v>0.0004392614488653891</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -31323,13 +31323,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007373731711429939</v>
+        <v>0.007373740178622257</v>
       </c>
       <c r="C39" t="n">
         <v>0.007946081726280418</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0005723500148504795</v>
+        <v>0.0005723415476581615</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -31344,13 +31344,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007386845228789683</v>
+        <v>0.007387150628062062</v>
       </c>
       <c r="C40" t="n">
         <v>0.007835544836995686</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004486996082060032</v>
+        <v>0.0004483942089336243</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -31365,13 +31365,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006528163311506361</v>
+        <v>0.006528370301686605</v>
       </c>
       <c r="C41" t="n">
         <v>0.007706292707197139</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001178129395690779</v>
+        <v>0.001177922405510535</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -31407,13 +31407,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007133098376576091</v>
+        <v>0.007133097569029707</v>
       </c>
       <c r="C43" t="n">
         <v>0.007587567900187613</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0004544695236115221</v>
+        <v>0.000454470331157906</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -31428,13 +31428,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007081166526522902</v>
+        <v>0.00708122059940179</v>
       </c>
       <c r="C44" t="n">
         <v>0.00751182966123326</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0004306631347103587</v>
+        <v>0.0004306090618314698</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -31449,13 +31449,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006719263290220813</v>
+        <v>0.0067193212728703</v>
       </c>
       <c r="C45" t="n">
         <v>0.007396613961820075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0006773506715992616</v>
+        <v>0.0006772926889497743</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -31470,13 +31470,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006976871022604163</v>
+        <v>0.006976942097339959</v>
       </c>
       <c r="C46" t="n">
         <v>0.007319121169067552</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003422501464633888</v>
+        <v>0.0003421790717275932</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -31491,13 +31491,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006821202178387539</v>
+        <v>0.006821393427240485</v>
       </c>
       <c r="C47" t="n">
         <v>0.007287246775067457</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0004660445966799178</v>
+        <v>0.0004658533478269725</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -31512,13 +31512,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006765558868947366</v>
+        <v>0.006765710377860196</v>
       </c>
       <c r="C48" t="n">
         <v>0.007146590045580803</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003810311766334366</v>
+        <v>0.0003808796677206069</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -31533,13 +31533,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006924278348977657</v>
+        <v>0.006924393338577533</v>
       </c>
       <c r="C49" t="n">
         <v>0.006933411759103106</v>
       </c>
       <c r="D49" t="n">
-        <v>9.133410125449805e-06</v>
+        <v>9.018420525573091e-06</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -31554,13 +31554,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006511843740330693</v>
+        <v>0.006511916912913559</v>
       </c>
       <c r="C50" t="n">
         <v>0.006873756929965315</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0003619131896346215</v>
+        <v>0.0003618400170517563</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -31596,13 +31596,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.004538361118305941</v>
+        <v>0.004538435815705076</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.004538361118305941</v>
+        <v>-0.004538435815705076</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -31617,13 +31617,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0058142485886314</v>
+        <v>0.005814373704734897</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0058142485886314</v>
+        <v>-0.005814373704734897</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20240329.xlsx
+++ b/output/SIZE/rebalance/rebalance_20240329.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.51%</t>
+          <t>5.47%</t>
         </is>
       </c>
     </row>
@@ -30546,13 +30546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3447639950116754</v>
+        <v>0.3443411846215863</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04476399501167544</v>
+        <v>-0.04434118462158632</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -30567,13 +30567,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05984204579058545</v>
+        <v>0.06004460793169112</v>
       </c>
       <c r="C3" t="n">
         <v>0.06080844826008838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009664024695029347</v>
+        <v>0.0007638403283972625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -30588,13 +30588,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0515143932397078</v>
+        <v>0.05031702113177561</v>
       </c>
       <c r="C4" t="n">
         <v>0.05589774460464264</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00438335136493484</v>
+        <v>0.005580723472867033</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -30609,13 +30609,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03002416738619609</v>
+        <v>0.03012500342656682</v>
       </c>
       <c r="C5" t="n">
         <v>0.03315141673952939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003127249353333299</v>
+        <v>0.003026413312962568</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -30630,13 +30630,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02811760584082249</v>
+        <v>0.02821120258136543</v>
       </c>
       <c r="C6" t="n">
         <v>0.02978852195970292</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001670916118880431</v>
+        <v>0.001577319378337494</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -30651,13 +30651,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02702741801180485</v>
+        <v>0.02711741520264261</v>
       </c>
       <c r="C7" t="n">
         <v>0.02858255864909384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001555140637288989</v>
+        <v>0.001465143446451229</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -30672,13 +30672,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02469726080857522</v>
+        <v>0.02478016903047061</v>
       </c>
       <c r="C8" t="n">
         <v>0.02590160044548957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001204339636914343</v>
+        <v>0.001121431415018959</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -30693,13 +30693,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02170320743539183</v>
+        <v>0.02177536170063523</v>
       </c>
       <c r="C9" t="n">
         <v>0.02305045052346277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001347243088070948</v>
+        <v>0.001275088822827543</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -30714,13 +30714,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0188471969571943</v>
+        <v>0.01891109902980196</v>
       </c>
       <c r="C10" t="n">
         <v>0.02064203300984096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001794836052646655</v>
+        <v>0.001730933980039002</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -30735,13 +30735,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01810027862929854</v>
+        <v>0.01816043532827374</v>
       </c>
       <c r="C11" t="n">
         <v>0.01944718187328696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001346903243988423</v>
+        <v>0.001286746545013224</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -30756,13 +30756,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01814194697796908</v>
+        <v>0.0182020742020508</v>
       </c>
       <c r="C12" t="n">
         <v>0.01936033146027753</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001218384482308457</v>
+        <v>0.001158257258226731</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -30777,13 +30777,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01808797874104261</v>
+        <v>0.01814831801019979</v>
       </c>
       <c r="C13" t="n">
         <v>0.01912492882568968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001036950084647072</v>
+        <v>0.0009766108154898867</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -30798,13 +30798,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01609213222048733</v>
+        <v>0.01614562409874119</v>
       </c>
       <c r="C14" t="n">
         <v>0.01707677969195884</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0009846474714715094</v>
+        <v>0.0009311555932176481</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -30819,13 +30819,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01213120655249449</v>
+        <v>0.01217182338704586</v>
       </c>
       <c r="C15" t="n">
         <v>0.01298720721405682</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0008560006615623266</v>
+        <v>0.0008153838270109608</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -30840,13 +30840,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01205189633670631</v>
+        <v>0.01209166821819195</v>
       </c>
       <c r="C16" t="n">
         <v>0.01287725517603814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0008253588393318349</v>
+        <v>0.0007855869578461908</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -30861,13 +30861,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01203472895419148</v>
+        <v>0.01207479325336928</v>
       </c>
       <c r="C17" t="n">
         <v>0.01282578826462515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007910593104336651</v>
+        <v>0.0007509950112558721</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -30882,13 +30882,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01180611308431363</v>
+        <v>0.01184572611981939</v>
       </c>
       <c r="C18" t="n">
         <v>0.01248189572018376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0006757826358701272</v>
+        <v>0.00063616960036437</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -30903,13 +30903,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01062781009196584</v>
+        <v>0.01066298632708433</v>
       </c>
       <c r="C19" t="n">
         <v>0.01160344911856648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0009756390266006422</v>
+        <v>0.0009404627914821502</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -30924,13 +30924,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01060353969805452</v>
+        <v>0.010638568162319</v>
       </c>
       <c r="C20" t="n">
         <v>0.01128031879407011</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006767790960155919</v>
+        <v>0.0006417506317511097</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -30945,13 +30945,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01061706194110821</v>
+        <v>0.01065252931426209</v>
       </c>
       <c r="C21" t="n">
         <v>0.01126979147128109</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006527295301728808</v>
+        <v>0.0006172621570189971</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -30966,13 +30966,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01054267514977749</v>
+        <v>0.01057788155849684</v>
       </c>
       <c r="C22" t="n">
         <v>0.01121452302663872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0006718478768612327</v>
+        <v>0.0006366414681418867</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -30987,13 +30987,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01043595474626654</v>
+        <v>0.01047064982912249</v>
       </c>
       <c r="C23" t="n">
         <v>0.01103263428289506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0005966795366285239</v>
+        <v>0.0005619844537725713</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31008,13 +31008,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01042172161651247</v>
+        <v>0.01045633851064196</v>
       </c>
       <c r="C24" t="n">
         <v>0.01102386151390421</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0006021398973917423</v>
+        <v>0.0005675230032622536</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31029,13 +31029,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01039370631222431</v>
+        <v>0.01042862085078859</v>
       </c>
       <c r="C25" t="n">
         <v>0.01081477718628892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0004210708740646062</v>
+        <v>0.0003861563355003275</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31050,13 +31050,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009949210438512978</v>
+        <v>0.009983191363307206</v>
       </c>
       <c r="C26" t="n">
         <v>0.01074751929069239</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0007983088521794097</v>
+        <v>0.0007643279273851812</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31071,13 +31071,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009700289437981954</v>
+        <v>0.009732859545819362</v>
       </c>
       <c r="C27" t="n">
         <v>0.01058960944885706</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0008893200108751036</v>
+        <v>0.0008567499030376954</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31092,13 +31092,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01000678547790937</v>
+        <v>0.0100397038443209</v>
       </c>
       <c r="C28" t="n">
         <v>0.01047527102634295</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004684855484335809</v>
+        <v>0.0004355671820220515</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31113,13 +31113,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009691102485892488</v>
+        <v>0.009723317166203125</v>
       </c>
       <c r="C29" t="n">
         <v>0.01014102852779151</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0004499260418990188</v>
+        <v>0.0004177113615883819</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31134,13 +31134,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009006205375648063</v>
+        <v>0.008886951761723029</v>
       </c>
       <c r="C30" t="n">
         <v>0.009545065087679648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005388597120315856</v>
+        <v>0.0006581133259566194</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31155,13 +31155,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008900683488854987</v>
+        <v>0.008930219586565688</v>
       </c>
       <c r="C31" t="n">
         <v>0.009461138931000502</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0005604554421455143</v>
+        <v>0.0005309193444348135</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31176,13 +31176,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008733955944998128</v>
+        <v>0.008762141070705675</v>
       </c>
       <c r="C32" t="n">
         <v>0.0093292549705047</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005952990255065713</v>
+        <v>0.0005671138997990245</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31197,13 +31197,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008673213933925521</v>
+        <v>0.008702101123936124</v>
       </c>
       <c r="C33" t="n">
         <v>0.009235678767935615</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000562464834010094</v>
+        <v>0.0005335776439994912</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31218,13 +31218,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008401355044855882</v>
+        <v>0.008429343334251365</v>
       </c>
       <c r="C34" t="n">
         <v>0.008875410388044638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004740553431887562</v>
+        <v>0.0004460670537932733</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31239,13 +31239,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008097989986032216</v>
+        <v>0.008124967711505624</v>
       </c>
       <c r="C35" t="n">
         <v>0.008593219652172242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004952296661400266</v>
+        <v>0.0004682519406666186</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31260,13 +31260,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008043725777377463</v>
+        <v>0.008071316791717069</v>
       </c>
       <c r="C36" t="n">
         <v>0.008518066264483946</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0004743404871064838</v>
+        <v>0.0004467494727668775</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -31281,13 +31281,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007930984135413984</v>
+        <v>0.007957448592316733</v>
       </c>
       <c r="C37" t="n">
         <v>0.008399049031841391</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0004680648964274069</v>
+        <v>0.0004416004395246583</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -31302,13 +31302,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007662390714186132</v>
+        <v>0.007687997536557492</v>
       </c>
       <c r="C38" t="n">
         <v>0.008101652163051521</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0004392614488653891</v>
+        <v>0.0004136546264940288</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -31323,13 +31323,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007373740178622257</v>
+        <v>0.007398443427197776</v>
       </c>
       <c r="C39" t="n">
         <v>0.007946081726280418</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0005723415476581615</v>
+        <v>0.0005476382990826419</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -31344,13 +31344,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007387150628062062</v>
+        <v>0.007411600892117102</v>
       </c>
       <c r="C40" t="n">
         <v>0.007835544836995686</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004483942089336243</v>
+        <v>0.0004239439448785838</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -31365,13 +31365,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006528370301686605</v>
+        <v>0.006550041259139023</v>
       </c>
       <c r="C41" t="n">
         <v>0.007706292707197139</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001177922405510535</v>
+        <v>0.001156251448058116</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -31407,13 +31407,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007133097569029707</v>
+        <v>0.007157003653649397</v>
       </c>
       <c r="C43" t="n">
         <v>0.007587567900187613</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000454470331157906</v>
+        <v>0.0004305642465382157</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -31428,13 +31428,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00708122059940179</v>
+        <v>0.007104897763480838</v>
       </c>
       <c r="C44" t="n">
         <v>0.00751182966123326</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0004306090618314698</v>
+        <v>0.000406931897752422</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -31449,13 +31449,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0067193212728703</v>
+        <v>0.006649111136065402</v>
       </c>
       <c r="C45" t="n">
         <v>0.007396613961820075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0006772926889497743</v>
+        <v>0.0007475028257546727</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -31470,13 +31470,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006976942097339959</v>
+        <v>0.007000252732219689</v>
       </c>
       <c r="C46" t="n">
         <v>0.007319121169067552</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003421790717275932</v>
+        <v>0.0003188684368478634</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -31491,13 +31491,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006821393427240485</v>
+        <v>0.006844062192288773</v>
       </c>
       <c r="C47" t="n">
         <v>0.007287246775067457</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0004658533478269725</v>
+        <v>0.0004431845827786839</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -31512,13 +31512,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006765710377860196</v>
+        <v>0.006788232404454614</v>
       </c>
       <c r="C48" t="n">
         <v>0.007146590045580803</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003808796677206069</v>
+        <v>0.0003583576411261887</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -31533,13 +31533,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006924393338577533</v>
+        <v>0.006792721699097613</v>
       </c>
       <c r="C49" t="n">
         <v>0.006933411759103106</v>
       </c>
       <c r="D49" t="n">
-        <v>9.018420525573091e-06</v>
+        <v>0.0001406900600054934</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -31554,13 +31554,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006511916912913559</v>
+        <v>0.006533666995899682</v>
       </c>
       <c r="C50" t="n">
         <v>0.006873756929965315</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0003618400170517563</v>
+        <v>0.000340089934065633</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -31596,13 +31596,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.004538435815705076</v>
+        <v>0.004553570607123331</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.004538435815705076</v>
+        <v>-0.004553570607123331</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -31617,13 +31617,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005814373704734897</v>
+        <v>0.005833733981394355</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005814373704734897</v>
+        <v>-0.005833733981394355</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
